--- a/questions/Client Command TableA9.xlsx
+++ b/questions/Client Command TableA9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aysva\SimplicityStudio\v5_workspace\ecen5823-assignment9-aysvarya-gopinath\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E459624A-B747-4AEE-B82C-45AACFD58B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF292CD4-F15F-4DC6-9E0F-E5D36D90C7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
   <si>
     <t>Client Command Table for A7</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>Save the connection handle</t>
-  </si>
-  <si>
-    <t>Save the gatt_service handle</t>
   </si>
   <si>
     <t>Events only for Masters /Clients</t>
@@ -138,9 +135,6 @@
     <t xml:space="preserve">   sl_bt_gatt_send_characteristic_confirmation()</t>
   </si>
   <si>
-    <t xml:space="preserve">Save the characteristic handle       </t>
-  </si>
-  <si>
     <t xml:space="preserve">Save advertising packet-type, bluetooth address of the remote device (bd_address) and address type                     </t>
   </si>
   <si>
@@ -175,18 +169,12 @@
     <t>This event is trigered when a connection is closed.Hence call this function to start discovery again to reconnect.</t>
   </si>
   <si>
-    <t xml:space="preserve">This event is triggered when a procedure was successfully completed or failed with an error.This event is generated in response to  sl_bt_gatt_discover_primary_services_by_uuid(), sl_bt_gatt_discover_characteristics_by_uuid() and sl_bt_gatt_set_characteristic_notification(). The application waits for this event before issuing another GATT command </t>
-  </si>
-  <si>
     <t xml:space="preserve">This function performs a one-time discovery of  the Temperature Measurement characteristic using its UUID. This function is called after the  sl_bt_gatt_discover_primary_services_by_uuid() function hits the gatt_procedure_ completed event. </t>
   </si>
   <si>
     <t xml:space="preserve"> This function enables the indications sent from a remote GATT server. It is called after the  sl_bt_gatt_discover_characteristics_by_uuid() function hits the gatt_procedure_ completed event. </t>
   </si>
   <si>
-    <t>Advertising- printed by Server</t>
-  </si>
-  <si>
     <t>Discovering -printed by Client</t>
   </si>
   <si>
@@ -226,9 +214,6 @@
     <t>Server Address- printed by client</t>
   </si>
   <si>
-    <t>Advertising &amp; Server address- printed by Server</t>
-  </si>
-  <si>
     <t>Discovering  &amp; Client address-printed by Client</t>
   </si>
   <si>
@@ -266,6 +251,48 @@
   </si>
   <si>
     <t>sl_bt_evt_gatt_procedure_ completed_id</t>
+  </si>
+  <si>
+    <t>sl_bt_gatt_set_characteristic_notification</t>
+  </si>
+  <si>
+    <t>This call is initiated after the PB0 and PB1 toggle sequence , to toggle the push button state indication</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_sm_bonding_failed_id</t>
+  </si>
+  <si>
+    <t>Bonding failed</t>
+  </si>
+  <si>
+    <t>Bonding failed--- printed by Client</t>
+  </si>
+  <si>
+    <t>Bonding accepted successfully</t>
+  </si>
+  <si>
+    <t>Passkey is displayed for the confirmation</t>
+  </si>
+  <si>
+    <t>Bonding request received ,accept the bonding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save the gatt_service handle for both </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save the characteristic handle  for both      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The temperature and button state received from the server is displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This event is triggered when a procedure was successfully completed or failed with an error.This event is generated in response to  sl_bt_gatt_discover_primary_services_by_uuid(), sl_bt_gatt_discover_characteristics_by_uuid() and sl_bt_gatt_set_characteristic_notification() and sl_bt_gatt_read_characteristic_value() .  The application waits for this event before issuing another GATT command </t>
+  </si>
+  <si>
+    <t>This function enhances the security of the connection by initiating the bonding process for data encryption</t>
+  </si>
+  <si>
+    <t>displayUpdate ()</t>
   </si>
 </sst>
 </file>
@@ -485,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -610,6 +637,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,13 +729,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>3400425</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>166253</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1828,10 +1856,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1910,9 +1938,7 @@
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="18" t="s">
         <v>11</v>
@@ -1925,7 +1951,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="41" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="48" t="s">
@@ -1939,7 +1965,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="40" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="49"/>
@@ -1987,10 +2013,10 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1999,10 +2025,10 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2027,20 +2053,20 @@
         <v>18</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="C17" s="23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>31</v>
@@ -2073,27 +2099,28 @@
         <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
       <c r="B21" s="32"/>
-      <c r="C21" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="D21" s="39"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="33"/>
+      <c r="E21" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
@@ -2109,8 +2136,11 @@
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="22"/>
+      <c r="E23" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="F23" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2118,12 +2148,11 @@
       <c r="B24" s="4"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
       <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="15"/>
@@ -2138,13 +2167,13 @@
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2158,17 +2187,17 @@
     <row r="28" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="32"/>
       <c r="B28" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="11" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2176,9 +2205,11 @@
       <c r="C29" s="30"/>
       <c r="D29" s="33"/>
       <c r="E29" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" s="29"/>
+        <v>70</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="26"/>
@@ -2186,10 +2217,10 @@
       <c r="C30" s="30"/>
       <c r="D30" s="35"/>
       <c r="E30" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2198,10 +2229,10 @@
       <c r="C31" s="30"/>
       <c r="D31" s="35"/>
       <c r="E31" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2227,13 +2258,13 @@
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="21" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E34" s="31" t="s">
         <v>23</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2250,13 +2281,13 @@
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="21" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2269,12 +2300,16 @@
     <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="15"/>
+        <v>54</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="F38" s="15" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26"/>
@@ -2287,16 +2322,16 @@
     <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26"/>
       <c r="B40" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>71</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C40" s="33"/>
       <c r="D40" s="30"/>
       <c r="E40" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" s="30"/>
+        <v>61</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="26"/>
@@ -2309,116 +2344,145 @@
     <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="26"/>
       <c r="B42" s="26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
+      <c r="F42" s="30" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="26"/>
       <c r="B43" s="26"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
       <c r="E43" s="30"/>
       <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26"/>
-      <c r="B44" s="42" t="s">
-        <v>73</v>
+      <c r="B44" s="50" t="s">
+        <v>78</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30" t="s">
-        <v>77</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D44" s="33"/>
+      <c r="E44" s="30"/>
       <c r="F44" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
-      <c r="E45" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>79</v>
-      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="30"/>
+      <c r="B46" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="33"/>
       <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
+      <c r="E46" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="26"/>
       <c r="B47" s="26"/>
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
+      <c r="E47" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="26"/>
       <c r="B48" s="26"/>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-    </row>
-    <row r="49" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="16" t="s">
+      <c r="E48" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+    </row>
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+    </row>
+    <row r="51" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4"/>
+      <c r="B51" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-    </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
+      <c r="C51" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="15"/>
+      <c r="C52" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
+      <c r="F52" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+    </row>
+    <row r="54" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
